--- a/biology/Zoologie/Epictia_tricolor/Epictia_tricolor.xlsx
+++ b/biology/Zoologie/Epictia_tricolor/Epictia_tricolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epictia tricolor est une espèce de serpents de la famille des Leptotyphlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epictia tricolor est une espèce de serpents de la famille des Leptotyphlopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pérou. Elle se rencontre dans les régions de Cajamarca, de Ancash et de Lima. On la trouve entre 2 000 et 3 300 m d'altitude. Elle vit dans la forêt tropicale humide de montagne et dans les prairies de haute altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pérou. Elle se rencontre dans les régions de Cajamarca, de Ancash et de Lima. On la trouve entre 2 000 et 3 300 m d'altitude. Elle vit dans la forêt tropicale humide de montagne et dans les prairies de haute altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'holotype de Epictia tricolor[3], un mâle adulte, mesure 295 mm dont 14 mm pour la queue. Cette espèce présente un motif composé de six bandes longitudinales :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'holotype de Epictia tricolor, un mâle adulte, mesure 295 mm dont 14 mm pour la queue. Cette espèce présente un motif composé de six bandes longitudinales :
 une au milieu du dos de couleur rouge brique et occupant quatre rangées d'écailles ;
 puis, de chaque côté de celle-ci, deux bandes noires occupant deux rangées d'écailles ;
 puis, à l'extérieur de celles-ci, deux bandes crème occupant une rangée et demi d'écailles ;
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin tri-, « trois », et color, « couleur », lui a été donné en référence à sa livrée à trois couleurs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin tri-, « trois », et color, « couleur », lui a été donné en référence à sa livrée à trois couleurs.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Orejas-Miranda &amp; Zug, 1974 : A new tricolor Leptotyphlops (Reptilia: Serpentes) from Peru. Proceedings of the Biological Society of Washington, vol. 87, no 16, p. 167-174 (texte intégral).</t>
         </is>
